--- a/classfiers/nano/elm/nearmiss/nano_elm_tanh_nearmiss_results.xlsx
+++ b/classfiers/nano/elm/nearmiss/nano_elm_tanh_nearmiss_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4799999999999999</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7669172932330826</v>
+        <v>0.7396121883656509</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4827586206896551</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5410052910052909</v>
+        <v>0.5290858725761772</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7526315789473683</v>
+        <v>0.7977839335180055</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8885869565217391</v>
+        <v>0.6941176470588235</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4572192513368983</v>
+        <v>0.7411764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.975</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3702791068580542</v>
+        <v>0.3354798761609907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5241756557618625</v>
+        <v>0.460198573356468</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6812720742088759</v>
+        <v>0.7003552224213785</v>
       </c>
     </row>
   </sheetData>
